--- a/medicine/Enfance/Chantal_Couliou/Chantal_Couliou.xlsx
+++ b/medicine/Enfance/Chantal_Couliou/Chantal_Couliou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chantal Couliou est née le 12 mai 1961 à Vannes. Professeur des écoles à Brest, elle a publié une trentaine de recueils de poésie. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chantal Couliou est lauréate de plusieurs prix, dont le Prix Paul Quéré 2021-2022[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chantal Couliou est lauréate de plusieurs prix, dont le Prix Paul Quéré 2021-2022. 
 Elle est membre de la Charte des auteurs et illustrateurs jeunesse.
 </t>
         </is>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poésie
-Horizons horizons, SGDP, 1984
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Horizons horizons, SGDP, 1984
 Désordre, Maison Rhodanienne de poésie, 1988
 De l'algue à la pierre, Encres vives, 1997
 Le chuchotement des jours ordinaires, l'Épi de seigles, 1997
@@ -591,54 +610,158 @@
 Et pour les nouvelles : Un été au bord de la mer, éditions Unicité, 2021
 Une traversée de soi, collection Ecriterres, Les Editions Sauvages, 2022
 Du bleu en tête, haïkus en collaboration avec Régine Bobée et Choupie Moysan, éditions Unicité, 2022
-Instants nomades, éditions Gros Textes, 2023
-Livre d'artiste
-Grand large : encres et pastel, avec Marguerite Rolland, CMJN éditions, 2013
+Instants nomades, éditions Gros Textes, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chantal_Couliou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Couliou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livre d'artiste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grand large : encres et pastel, avec Marguerite Rolland, CMJN éditions, 2013
 Pluie sur les rochers, avec la plasticienne Choupie Moysan, L3V,mt-galerie, 2014
 Seul le bleu demeure, avec Lydia Padellec ( acryliques) , éditions de la Lune bleue, 2017
 Infini et Un reste de lumière avec la plasticienne Maria Desmée, 2019, chez l'artiste
 Papillotes, Atelier de Groutel, 2019
 Macules, illustrations de FIL, Les Ateliers Miénnée de Lanouée éditions, 2019
-Equivoques, avec des photographies d'Erik Saignes, Les Editions Poétiques Ephémères, 2022
-Nouvelles
-Une petite pluie : nouvelles, Les Découvertes de la Luciole, 2006
-Un été au bord de la mer, éditions Unicité, 2021
-Pédagogie et Poésie
-La clé des mots, éditions Buissonnières, 2012
+Equivoques, avec des photographies d'Erik Saignes, Les Editions Poétiques Ephémères, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chantal_Couliou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Couliou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une petite pluie : nouvelles, Les Découvertes de la Luciole, 2006
+Un été au bord de la mer, éditions Unicité, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chantal_Couliou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Couliou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pédagogie et Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clé des mots, éditions Buissonnières, 2012
 Publications de fiches pédagogiques (poésie et arts plastiques) dans la revue La Classe.
 Elle a aussi publié des nouvelles en revues et en anthologies.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Chantal_Couliou</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chantal_Couliou</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Paul Quéré 2021-2022 pour Une traversée de soi
-Prix Joël Sadeler 2017[2] pour Le chuchotis des mots</t>
+Prix Joël Sadeler 2017 pour Le chuchotis des mots</t>
         </is>
       </c>
     </row>
